--- a/src/test/resources/Example.xlsx
+++ b/src/test/resources/Example.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
-  <si>
-    <t>EjemploIntValue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>getM1IntResult</t>
   </si>
@@ -63,6 +60,18 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>getExampleIntValue1</t>
+  </si>
+  <si>
+    <t>getEexampleIntIntValue1</t>
+  </si>
+  <si>
+    <t>getExampleIntIntValue2</t>
+  </si>
+  <si>
+    <t>END</t>
   </si>
 </sst>
 </file>
@@ -410,435 +419,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
-    <col min="5" max="17" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="20" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <f>INT($B3+G3)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <f>INT($B3+I3)</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>B3+IF(K3="true",1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="L3">
+        <f>INT(M3)+B3</f>
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <f>B3+O3+P3</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>A2</f>
+      <c r="P3">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <f>INT($A2+D2)</f>
+    </row>
+    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f>INT($B6+G6)</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <f>INT($B6+I6)</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>B6+IF(K6="true",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <f>INT(M6)+B6</f>
+        <v>10</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <f>B6+O6+P6</f>
+        <v>2</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="P6">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <f>INT($A2+F2)</f>
+    </row>
+    <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f>INT($B7+G7)</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <f>INT($B7+I7)</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <f>B7+IF(K7="true",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <f>A2+IF(H2="true",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <f>INT(M7)+B7</f>
+        <v>10</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <f>B7+O7+P7</f>
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f>B8</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <f>INT($B8+G8)</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <f>INT($B8+I8)</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>B8+IF(K8="true",1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="I2">
-        <f>INT(J2)+A2</f>
+      <c r="L8">
+        <f>INT(M8)+B8</f>
+        <v>13</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <f>B8+O8+P8</f>
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <f>B9</f>
+        <v>-1</v>
+      </c>
+      <c r="F9" s="2">
+        <f>INT($B9+G9)</f>
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <f>A2+L2+M2</f>
+      <c r="H9" s="2">
+        <f>INT($B9+I9)</f>
+        <v>9</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <f>B9+IF(K9="true",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B9" si="0">A3</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C9" si="1">INT($A3+D3)</f>
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E9" si="2">INT($A3+F3)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="3">A3+IF(H3="true",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <f>INT(M9)+B9</f>
+        <v>9</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I9" si="4">INT(J3)+A3</f>
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K9" si="5">A3+L3+M3</f>
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="N9">
+        <f>B9+O9+P9</f>
+        <v>-3</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="P9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <f>B10</f>
+        <v>-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f>INT($B10+G10)</f>
+        <v>-5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H10" s="2">
+        <f>INT($B10+I10)</f>
+        <v>-5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J10">
+        <f>B10+IF(K10="true",1,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
+      <c r="L10">
+        <f>INT(M10)+B10</f>
+        <v>8</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <f>B10+O10+P10</f>
+        <v>-6</v>
+      </c>
+      <c r="O10">
+        <v>-2</v>
+      </c>
+      <c r="P10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="E11">
+        <f>B11</f>
+        <v>-3</v>
+      </c>
+      <c r="F11" s="2">
+        <f>INT($B11+G11)</f>
+        <v>-5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H11" s="2">
+        <f>INT($B11+I11)</f>
+        <v>-5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J11">
+        <f>B11+IF(K11="true",1,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="K11" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="L11">
+        <f>INT(M11)+B11</f>
+        <v>7</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
+      <c r="N11">
+        <f>B11+O11+P11</f>
+        <v>-9</v>
+      </c>
+      <c r="O11">
+        <v>-3</v>
+      </c>
+      <c r="P11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f>B12</f>
+        <v>100</v>
+      </c>
+      <c r="F12" s="2">
+        <f>INT($B12+G12)</f>
+        <v>99</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="2">
+        <f>INT($B12+I12)</f>
+        <v>99</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <f>B12+IF(K12="true",1,0)</f>
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-1</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-2</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-3</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="L12">
+        <f>INT(M12)+B12</f>
+        <v>110</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>-6</v>
-      </c>
-      <c r="L7">
-        <v>-2</v>
-      </c>
-      <c r="M7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-3</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>-9</v>
-      </c>
-      <c r="L8">
-        <v>-3</v>
-      </c>
-      <c r="M8">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="N12">
+        <f>B12+O12+P12</f>
+        <v>300</v>
+      </c>
+      <c r="O12">
         <v>100</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
+      <c r="P12">
         <v>100</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9">
-        <v>100</v>
-      </c>
+    </row>
+    <row r="13" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Example.xlsx
+++ b/src/test/resources/Example.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>getM1IntResult</t>
   </si>
@@ -65,13 +65,19 @@
     <t>getExampleIntValue1</t>
   </si>
   <si>
-    <t>getEexampleIntIntValue1</t>
-  </si>
-  <si>
     <t>getExampleIntIntValue2</t>
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>getExample</t>
+  </si>
+  <si>
+    <t>getExampleIntIntValue1</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -419,466 +425,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="20" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="21" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>B3</f>
+      <c r="F3">
+        <f>C3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="2">
-        <f>INT($B3+G3)</f>
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
+        <f>INT($C3+H3)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
-        <f>INT($B3+I3)</f>
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
+        <f>INT($C3+J3)</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="J3">
-        <f>B3+IF(K3="true",1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <f>C3+IF(L3="true",1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="L3">
-        <f>INT(M3)+B3</f>
+      <c r="M3">
+        <f>INT(N3)+C3</f>
         <v>11</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N3">
-        <f>B3+O3+P3</f>
+      <c r="O3">
+        <f>C3+P3+Q3</f>
         <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <f>B6</f>
+      <c r="Q3">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <f>INT($B6+G6)</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <f>INT($B6+I6)</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <f>B6+IF(K6="true",1,0)</f>
+    </row>
+    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F10" si="0">C4</f>
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G10" si="1">INT($C4+H4)</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I10" si="2">INT($C4+J4)</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="3">C4+IF(L4="true",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="L6">
-        <f>INT(M6)+B6</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M10" si="4">INT(N4)+C4</f>
         <v>10</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N6">
-        <f>B6+O6+P6</f>
-        <v>2</v>
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="5">C4+P4+Q4</f>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="E7">
-        <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <f>INT($B7+G7)</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <f>INT($B7+I7)</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <f>B7+IF(K7="true",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="N8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="P8">
+        <v>-2</v>
+      </c>
+      <c r="Q8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="L9" t="s">
         <v>12</v>
       </c>
-      <c r="L7">
-        <f>INT(M7)+B7</f>
-        <v>10</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N7">
-        <f>B7+O7+P7</f>
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <f>B8</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <f>INT($B8+G8)</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <f>INT($B8+I8)</f>
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>B8+IF(K8="true",1,0)</f>
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="P9">
+        <v>-3</v>
+      </c>
+      <c r="Q9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
         <v>13</v>
       </c>
-      <c r="L8">
-        <f>INT(M8)+B8</f>
-        <v>13</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N8">
-        <f>B8+O8+P8</f>
-        <v>9</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <f>B9</f>
-        <v>-1</v>
-      </c>
-      <c r="F9" s="2">
-        <f>INT($B9+G9)</f>
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2">
-        <f>INT($B9+I9)</f>
-        <v>9</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <f>B9+IF(K9="true",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9">
-        <f>INT(M9)+B9</f>
-        <v>9</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <f>B9+O9+P9</f>
-        <v>-3</v>
-      </c>
-      <c r="O9">
-        <v>-1</v>
-      </c>
-      <c r="P9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>-2</v>
-      </c>
-      <c r="E10">
-        <f>B10</f>
-        <v>-2</v>
-      </c>
-      <c r="F10" s="2">
-        <f>INT($B10+G10)</f>
-        <v>-5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-3</v>
-      </c>
-      <c r="H10" s="2">
-        <f>INT($B10+I10)</f>
-        <v>-5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>-3</v>
-      </c>
-      <c r="J10">
-        <f>B10+IF(K10="true",1,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10">
-        <f>INT(M10)+B10</f>
-        <v>8</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <f>B10+O10+P10</f>
-        <v>-6</v>
-      </c>
       <c r="O10">
-        <v>-2</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="P10">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>-3</v>
-      </c>
-      <c r="E11">
-        <f>B11</f>
-        <v>-3</v>
-      </c>
-      <c r="F11" s="2">
-        <f>INT($B11+G11)</f>
-        <v>-5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-2</v>
-      </c>
-      <c r="H11" s="2">
-        <f>INT($B11+I11)</f>
-        <v>-5</v>
-      </c>
-      <c r="I11" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J11">
-        <f>B11+IF(K11="true",1,0)</f>
-        <v>-2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11">
-        <f>INT(M11)+B11</f>
-        <v>7</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <f>B11+O11+P11</f>
-        <v>-9</v>
-      </c>
-      <c r="O11">
-        <v>-3</v>
-      </c>
-      <c r="P11">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12">
         <v>100</v>
       </c>
-      <c r="E12">
-        <f>B12</f>
+      <c r="Q10">
         <v>100</v>
       </c>
-      <c r="F12" s="2">
-        <f>INT($B12+G12)</f>
-        <v>99</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="2">
-        <f>INT($B12+I12)</f>
-        <v>99</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J12">
-        <f>B12+IF(K12="true",1,0)</f>
-        <v>100</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12">
-        <f>INT(M12)+B12</f>
-        <v>110</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12">
-        <f>B12+O12+P12</f>
-        <v>300</v>
-      </c>
-      <c r="O12">
-        <v>100</v>
-      </c>
-      <c r="P12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1"/>
+    </row>
+    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
